--- a/test_data/laicpms_stds_tidy.xlsx
+++ b/test_data/laicpms_stds_tidy.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanlubbers/Desktop/PhD/Keck_lab/Data_reduction/Laser_TRAMp/Current/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jlubbers_usgs_gov/Documents/Research/Coding/lasertram/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E85B78E-BD53-D64B-B7C2-AC5B6C40D24C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{4E85B78E-BD53-D64B-B7C2-AC5B6C40D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9344D254-51FC-4C11-861C-0399561EA237}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{76FC7D86-3AF8-6E4F-9A36-EB9464C01D17}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26535" windowHeight="11385" xr2:uid="{76FC7D86-3AF8-6E4F-9A36-EB9464C01D17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Ag</t>
   </si>
@@ -538,13 +540,16 @@
   </si>
   <si>
     <t>StHs680-G</t>
+  </si>
+  <si>
+    <t>NIST-616</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -582,6 +587,12 @@
       <sz val="10"/>
       <name val="Helv"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -604,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -631,6 +642,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,22 +958,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE757498-0CDD-7E46-BB86-41A1562AE751}">
-  <dimension ref="A1:EU18"/>
+  <dimension ref="A1:EU19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CV2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="DK20" sqref="DK20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="151" width="10.83203125" style="8"/>
+    <col min="2" max="151" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" s="1" customFormat="1">
+    <row r="1" spans="1:151" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:151">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:151">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>152</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:151">
+    <row r="4" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:151">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>154</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:151">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>155</v>
       </c>
@@ -3436,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:151">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>156</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:151">
+    <row r="8" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>157</v>
       </c>
@@ -4283,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:151">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>158</v>
       </c>
@@ -4732,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:151">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>159</v>
       </c>
@@ -5166,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:151">
+    <row r="11" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
@@ -5450,7 +5462,7 @@
         <v>120</v>
       </c>
       <c r="DB11" s="8">
-        <v>0</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="DC11" s="8">
         <v>0.17</v>
@@ -5573,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:151">
+    <row r="12" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>161</v>
       </c>
@@ -5986,7 +5998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:151">
+    <row r="13" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>162</v>
       </c>
@@ -6402,7 +6414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:151">
+    <row r="14" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>163</v>
       </c>
@@ -6827,7 +6839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:151">
+    <row r="15" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>164</v>
       </c>
@@ -7240,7 +7252,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:151">
+    <row r="16" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>165</v>
       </c>
@@ -7662,7 +7674,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:151">
+    <row r="17" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>166</v>
       </c>
@@ -8099,7 +8111,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:151">
+    <row r="18" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>167</v>
       </c>
@@ -8532,6 +8544,397 @@
       <c r="EU18" s="8">
         <v>180</v>
       </c>
+    </row>
+    <row r="19" spans="1:151" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>0.189</v>
+      </c>
+      <c r="F19">
+        <v>0.94</v>
+      </c>
+      <c r="G19">
+        <v>2.31</v>
+      </c>
+      <c r="H19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J19"/>
+      <c r="L19">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M19">
+        <v>2.92E-2</v>
+      </c>
+      <c r="O19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.4</v>
+      </c>
+      <c r="Q19">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R19">
+        <v>0.7</v>
+      </c>
+      <c r="S19">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="T19">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="U19">
+        <v>1.46E-2</v>
+      </c>
+      <c r="W19">
+        <v>16</v>
+      </c>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="Z19">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AA19">
+        <v>1.54E-2</v>
+      </c>
+      <c r="AB19">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="AC19">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="AD19">
+        <v>29</v>
+      </c>
+      <c r="AE19">
+        <v>2.98E-2</v>
+      </c>
+      <c r="AF19">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="AG19">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="AH19">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AI19">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AJ19">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="AK19"/>
+      <c r="AL19">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="AM19">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="AN19">
+        <v>0.435</v>
+      </c>
+      <c r="AO19">
+        <v>13</v>
+      </c>
+      <c r="AP19">
+        <v>1.85</v>
+      </c>
+      <c r="AQ19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AR19">
+        <v>0.104</v>
+      </c>
+      <c r="AS19">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AT19"/>
+      <c r="AU19">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AV19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AW19">
+        <v>0.22</v>
+      </c>
+      <c r="AX19" s="10">
+        <v>338891.61659703997</v>
+      </c>
+      <c r="AY19">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="AZ19">
+        <v>1.18</v>
+      </c>
+      <c r="BA19">
+        <v>41.72</v>
+      </c>
+      <c r="BB19">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="BC19">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="BD19">
+        <v>2.52E-2</v>
+      </c>
+      <c r="BE19">
+        <v>2.65</v>
+      </c>
+      <c r="BF19">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="BG19">
+        <v>1.44E-2</v>
+      </c>
+      <c r="BH19">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="BI19">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="BJ19">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="BK19">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="BL19">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="BM19">
+        <v>1.33</v>
+      </c>
+      <c r="BN19">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="BO19">
+        <v>0.01</v>
+      </c>
+      <c r="BP19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BS19">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="BT19">
+        <v>0.06</v>
+      </c>
+      <c r="BU19">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="BV19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="8">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="CA19" s="8">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="CC19">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="CD19">
+        <v>1E-3</v>
+      </c>
+      <c r="CE19">
+        <v>0.15</v>
+      </c>
+      <c r="CF19">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="CG19">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="CH19">
+        <v>3.5E-4</v>
+      </c>
+      <c r="CI19" s="8">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>4</v>
+      </c>
+      <c r="CK19">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="CL19">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="CM19">
+        <v>1.95E-2</v>
+      </c>
+      <c r="CN19">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="CO19">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="CP19">
+        <v>1.75E-3</v>
+      </c>
+      <c r="CQ19">
+        <v>0.5</v>
+      </c>
+      <c r="CR19">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="CS19">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="CT19">
+        <v>1E-3</v>
+      </c>
+      <c r="CU19">
+        <v>1.4</v>
+      </c>
+      <c r="CV19">
+        <v>1.35E-2</v>
+      </c>
+      <c r="CW19">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="CX19" s="8">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="CZ19">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="DA19">
+        <v>0.05</v>
+      </c>
+      <c r="DB19">
+        <v>5</v>
+      </c>
+      <c r="DC19">
+        <v>0.02</v>
+      </c>
+      <c r="DD19">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="DE19">
+        <v>2E-3</v>
+      </c>
+      <c r="DF19">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="DK19" s="8">
+        <v>3272.056</v>
+      </c>
+      <c r="DL19">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="DM19">
+        <v>0.04</v>
+      </c>
+      <c r="DN19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="DO19">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="DP19">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="DQ19">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="DR19">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="DS19">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="DT19">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="DU19">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="DV19">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="DW19">
+        <v>2E-3</v>
+      </c>
+      <c r="DX19">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="DY19">
+        <v>1.15E-3</v>
+      </c>
+      <c r="DZ19">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="EA19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="EB19" s="8">
+        <v>725000</v>
+      </c>
+      <c r="EI19" s="8">
+        <v>13700</v>
+      </c>
+      <c r="EL19" s="8">
+        <v>7000</v>
+      </c>
+      <c r="ES19" s="8">
+        <v>9000</v>
+      </c>
+      <c r="ET19"/>
+      <c r="EU19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
